--- a/6 新版工具/6.0/大号/新产品.xlsx
+++ b/6 新版工具/6.0/大号/新产品.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4AA61C5-4507-4774-B72D-422AFA66E913}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理已通过未写" sheetId="9" r:id="rId1"/>
     <sheet name="剪切无datasheet" sheetId="10" r:id="rId2"/>
     <sheet name="测试" sheetId="11" r:id="rId3"/>
+    <sheet name="第一批次提交" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整理已通过未写!$A$1:$J$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整理已通过未写!$A$1:$J$168</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="347">
   <si>
     <t>文章来源</t>
   </si>
@@ -1044,14 +1046,40 @@
   </si>
   <si>
     <t>P80F7R5SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标黄的后来datasheet更新了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/P30FE4SLK_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/P30FE6SLK_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/P30FE7R5SLK_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/P20FE12SLK_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/P4B60HP2F_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/P23F40HP2_Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>标红的为世强官网已有文章，同时注意第16个重复一个，记得排除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,8 +1102,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,6 +1121,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1191,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,10 +1207,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1497,11 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection sqref="A1:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3531,7 +3588,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>9</v>
@@ -3563,7 +3620,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>9</v>
@@ -3594,238 +3651,238 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="5">
+        <v>40</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>40</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>39</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H67" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="D67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>39</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="A68" s="5">
+        <v>41</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>40</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H69" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="A69" s="5">
+        <v>42</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>41</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H70" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="A70" s="5">
+        <v>43</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>41</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J71" s="1" t="s">
+      <c r="A71" s="5">
+        <v>44</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>42</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H72" s="1">
-        <v>2016.02</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J72" s="1" t="s">
+      <c r="A72" s="5">
+        <v>45</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>191</v>
@@ -3837,7 +3894,7 @@
         <v>145</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H73" s="1">
         <v>2016.02</v>
@@ -3851,13 +3908,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>191</v>
@@ -3869,7 +3926,7 @@
         <v>145</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H74" s="1">
         <v>2016.02</v>
@@ -3883,13 +3940,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>191</v>
@@ -3901,7 +3958,7 @@
         <v>145</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H75" s="1">
         <v>2016.02</v>
@@ -3915,13 +3972,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>191</v>
@@ -3933,10 +3990,10 @@
         <v>145</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H76" s="1">
-        <v>2016.04</v>
+        <v>2016.02</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>146</v>
@@ -3947,13 +4004,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>191</v>
@@ -3965,10 +4022,10 @@
         <v>145</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H77" s="1">
-        <v>2016.04</v>
+        <v>2016.02</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>146</v>
@@ -3979,13 +4036,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>191</v>
@@ -3997,10 +4054,10 @@
         <v>145</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H78" s="1">
-        <v>2016.04</v>
+        <v>2016.02</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>146</v>
@@ -4011,13 +4068,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>191</v>
@@ -4029,7 +4086,7 @@
         <v>145</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H79" s="1">
         <v>2016.02</v>
@@ -4043,13 +4100,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>191</v>
@@ -4061,7 +4118,7 @@
         <v>145</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H80" s="1">
         <v>2016.02</v>
@@ -4075,16 +4132,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>144</v>
@@ -4093,7 +4150,7 @@
         <v>145</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H81" s="1">
         <v>2016.02</v>
@@ -4107,16 +4164,16 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>144</v>
@@ -4125,7 +4182,7 @@
         <v>145</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H82" s="1">
         <v>2016.02</v>
@@ -4139,16 +4196,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>144</v>
@@ -4157,10 +4214,10 @@
         <v>145</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H83" s="1">
-        <v>2016.02</v>
+        <v>2016.04</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>146</v>
@@ -4171,16 +4228,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>144</v>
@@ -4189,10 +4246,10 @@
         <v>145</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H84" s="1">
-        <v>2016.02</v>
+        <v>2016.04</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>146</v>
@@ -4203,16 +4260,16 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>144</v>
@@ -4221,10 +4278,10 @@
         <v>145</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H85" s="1">
-        <v>2016.02</v>
+        <v>2016.04</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>146</v>
@@ -4235,16 +4292,16 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>144</v>
@@ -4253,7 +4310,7 @@
         <v>145</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H86" s="1">
         <v>2016.02</v>
@@ -4267,16 +4324,16 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>144</v>
@@ -4285,7 +4342,7 @@
         <v>145</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="H87" s="1">
         <v>2016.02</v>
@@ -4299,13 +4356,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>201</v>
@@ -4317,7 +4374,7 @@
         <v>145</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H88" s="1">
         <v>2016.02</v>
@@ -4331,13 +4388,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>201</v>
@@ -4349,7 +4406,7 @@
         <v>145</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H89" s="1">
         <v>2016.02</v>
@@ -4363,13 +4420,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>201</v>
@@ -4381,7 +4438,7 @@
         <v>145</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H90" s="1">
         <v>2016.02</v>
@@ -4395,13 +4452,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>201</v>
@@ -4413,7 +4470,7 @@
         <v>145</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H91" s="1">
         <v>2016.02</v>
@@ -4427,13 +4484,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>201</v>
@@ -4445,7 +4502,7 @@
         <v>145</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H92" s="1">
         <v>2016.02</v>
@@ -4459,13 +4516,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>201</v>
@@ -4477,7 +4534,7 @@
         <v>145</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H93" s="1">
         <v>2016.02</v>
@@ -4491,28 +4548,28 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="H94" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>146</v>
@@ -4523,28 +4580,28 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="H95" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>146</v>
@@ -4555,28 +4612,28 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="H96" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>146</v>
@@ -4587,28 +4644,28 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="H97" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>146</v>
@@ -4619,28 +4676,28 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="H98" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>146</v>
@@ -4651,28 +4708,28 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="H99" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>146</v>
@@ -4683,28 +4740,28 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="H100" s="1">
-        <v>2016.2</v>
+        <v>2016.02</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>146</v>
@@ -4715,16 +4772,16 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>277</v>
@@ -4733,7 +4790,7 @@
         <v>145</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="H101" s="1">
         <v>2016.2</v>
@@ -4747,13 +4804,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>209</v>
@@ -4765,7 +4822,7 @@
         <v>145</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H102" s="1">
         <v>2016.2</v>
@@ -4779,13 +4836,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>209</v>
@@ -4797,7 +4854,7 @@
         <v>145</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H103" s="1">
         <v>2016.2</v>
@@ -4811,13 +4868,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>209</v>
@@ -4829,7 +4886,7 @@
         <v>145</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H104" s="1">
         <v>2016.2</v>
@@ -4843,13 +4900,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>209</v>
@@ -4861,7 +4918,7 @@
         <v>145</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H105" s="1">
         <v>2016.2</v>
@@ -4875,13 +4932,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>209</v>
@@ -4893,7 +4950,7 @@
         <v>145</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H106" s="1">
         <v>2016.2</v>
@@ -4907,13 +4964,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>209</v>
@@ -4925,7 +4982,7 @@
         <v>145</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H107" s="1">
         <v>2016.2</v>
@@ -4939,13 +4996,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>209</v>
@@ -4957,10 +5014,10 @@
         <v>145</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H108" s="1">
-        <v>2016.11</v>
+        <v>2016.2</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>146</v>
@@ -4971,13 +5028,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>209</v>
@@ -4989,10 +5046,10 @@
         <v>145</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H109" s="1">
-        <v>2016.11</v>
+        <v>2016.2</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>146</v>
@@ -5003,13 +5060,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>209</v>
@@ -5021,7 +5078,7 @@
         <v>145</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H110" s="1">
         <v>2016.2</v>
@@ -5035,13 +5092,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>209</v>
@@ -5053,7 +5110,7 @@
         <v>145</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H111" s="1">
         <v>2016.2</v>
@@ -5067,13 +5124,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>209</v>
@@ -5085,7 +5142,7 @@
         <v>145</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H112" s="1">
         <v>2016.2</v>
@@ -5099,13 +5156,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>209</v>
@@ -5117,7 +5174,7 @@
         <v>145</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H113" s="1">
         <v>2016.2</v>
@@ -5131,13 +5188,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>209</v>
@@ -5149,7 +5206,7 @@
         <v>145</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H114" s="1">
         <v>2016.2</v>
@@ -5163,13 +5220,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>209</v>
@@ -5181,10 +5238,10 @@
         <v>145</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H115" s="1">
-        <v>2016.2</v>
+        <v>2016.11</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>146</v>
@@ -5195,13 +5252,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>209</v>
@@ -5213,10 +5270,10 @@
         <v>145</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H116" s="1">
-        <v>2016.2</v>
+        <v>2016.11</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>146</v>
@@ -5227,13 +5284,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>209</v>
@@ -5245,7 +5302,7 @@
         <v>145</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H117" s="1">
         <v>2016.2</v>
@@ -5259,13 +5316,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>209</v>
@@ -5277,7 +5334,7 @@
         <v>145</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H118" s="1">
         <v>2016.2</v>
@@ -5291,13 +5348,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>209</v>
@@ -5309,7 +5366,7 @@
         <v>145</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H119" s="1">
         <v>2016.2</v>
@@ -5323,13 +5380,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>209</v>
@@ -5341,7 +5398,7 @@
         <v>145</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H120" s="1">
         <v>2016.2</v>
@@ -5355,13 +5412,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>209</v>
@@ -5373,7 +5430,7 @@
         <v>145</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H121" s="1">
         <v>2016.2</v>
@@ -5387,13 +5444,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>209</v>
@@ -5405,7 +5462,7 @@
         <v>145</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H122" s="1">
         <v>2016.2</v>
@@ -5419,13 +5476,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>209</v>
@@ -5437,7 +5494,7 @@
         <v>145</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H123" s="1">
         <v>2016.2</v>
@@ -5451,13 +5508,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>209</v>
@@ -5469,7 +5526,7 @@
         <v>145</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H124" s="1">
         <v>2016.2</v>
@@ -5483,13 +5540,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>209</v>
@@ -5501,7 +5558,7 @@
         <v>145</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H125" s="1">
         <v>2016.2</v>
@@ -5515,13 +5572,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>209</v>
@@ -5533,10 +5590,10 @@
         <v>145</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H126" s="1">
-        <v>2016.11</v>
+        <v>2016.2</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>146</v>
@@ -5547,13 +5604,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>209</v>
@@ -5565,10 +5622,10 @@
         <v>145</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="H127" s="1">
-        <v>2016.7</v>
+        <v>2016.2</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>146</v>
@@ -5579,13 +5636,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>209</v>
@@ -5597,10 +5654,10 @@
         <v>145</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H128" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>146</v>
@@ -5611,13 +5668,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>209</v>
@@ -5629,10 +5686,10 @@
         <v>145</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H129" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>146</v>
@@ -5643,13 +5700,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>209</v>
@@ -5661,7 +5718,7 @@
         <v>145</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H130" s="1">
         <v>2016.2</v>
@@ -5675,13 +5732,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>209</v>
@@ -5693,10 +5750,10 @@
         <v>145</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H131" s="1">
-        <v>2017.2</v>
+        <v>2016.2</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>146</v>
@@ -5707,13 +5764,13 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>209</v>
@@ -5725,10 +5782,10 @@
         <v>145</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H132" s="1">
-        <v>2016.6</v>
+        <v>2016.2</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>146</v>
@@ -5739,13 +5796,13 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>209</v>
@@ -5757,10 +5814,10 @@
         <v>145</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H133" s="1">
-        <v>2016.3</v>
+        <v>2016.11</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>146</v>
@@ -5771,13 +5828,13 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>209</v>
@@ -5789,10 +5846,10 @@
         <v>145</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H134" s="1">
-        <v>2016.2</v>
+        <v>2016.7</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>146</v>
@@ -5803,13 +5860,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>209</v>
@@ -5821,10 +5878,10 @@
         <v>145</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H135" s="1">
-        <v>2016.2</v>
+        <v>2016.3</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>146</v>
@@ -5835,13 +5892,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>209</v>
@@ -5853,10 +5910,10 @@
         <v>145</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H136" s="1">
-        <v>2016.2</v>
+        <v>2016.3</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>146</v>
@@ -5867,13 +5924,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>209</v>
@@ -5885,7 +5942,7 @@
         <v>145</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H137" s="1">
         <v>2016.2</v>
@@ -5899,13 +5956,13 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>209</v>
@@ -5917,10 +5974,10 @@
         <v>145</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H138" s="1">
-        <v>2016.2</v>
+        <v>2017.2</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>146</v>
@@ -5931,13 +5988,13 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>209</v>
@@ -5949,10 +6006,10 @@
         <v>145</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H139" s="1">
-        <v>2016.2</v>
+        <v>2016.6</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>146</v>
@@ -5963,13 +6020,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>209</v>
@@ -5981,10 +6038,10 @@
         <v>145</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H140" s="1">
-        <v>2016.2</v>
+        <v>2016.3</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>146</v>
@@ -5995,13 +6052,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>209</v>
@@ -6013,7 +6070,7 @@
         <v>145</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H141" s="1">
         <v>2016.2</v>
@@ -6027,13 +6084,13 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>209</v>
@@ -6045,7 +6102,7 @@
         <v>145</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H142" s="1">
         <v>2016.2</v>
@@ -6059,13 +6116,13 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>209</v>
@@ -6077,7 +6134,7 @@
         <v>145</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H143" s="1">
         <v>2016.2</v>
@@ -6091,13 +6148,13 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>209</v>
@@ -6109,7 +6166,7 @@
         <v>145</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H144" s="1">
         <v>2016.2</v>
@@ -6123,13 +6180,13 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>209</v>
@@ -6141,7 +6198,7 @@
         <v>145</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H145" s="1">
         <v>2016.2</v>
@@ -6155,13 +6212,13 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>209</v>
@@ -6173,7 +6230,7 @@
         <v>145</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H146" s="1">
         <v>2016.2</v>
@@ -6187,13 +6244,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>209</v>
@@ -6205,7 +6262,7 @@
         <v>145</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H147" s="1">
         <v>2016.2</v>
@@ -6219,13 +6276,13 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>209</v>
@@ -6237,7 +6294,7 @@
         <v>145</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H148" s="1">
         <v>2016.2</v>
@@ -6251,13 +6308,13 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>209</v>
@@ -6269,7 +6326,7 @@
         <v>145</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H149" s="1">
         <v>2016.2</v>
@@ -6283,13 +6340,13 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>209</v>
@@ -6301,10 +6358,10 @@
         <v>145</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H150" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>146</v>
@@ -6315,13 +6372,13 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>209</v>
@@ -6333,10 +6390,10 @@
         <v>145</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H151" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>146</v>
@@ -6347,13 +6404,13 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>209</v>
@@ -6365,10 +6422,10 @@
         <v>145</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H152" s="1">
-        <v>2016.11</v>
+        <v>2016.2</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>146</v>
@@ -6379,13 +6436,13 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>209</v>
@@ -6397,10 +6454,10 @@
         <v>145</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H153" s="1">
-        <v>2016.11</v>
+        <v>2016.2</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>146</v>
@@ -6411,13 +6468,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>209</v>
@@ -6429,10 +6486,10 @@
         <v>145</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H154" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>146</v>
@@ -6443,13 +6500,13 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>209</v>
@@ -6461,10 +6518,10 @@
         <v>145</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H155" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>146</v>
@@ -6475,13 +6532,13 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>209</v>
@@ -6493,10 +6550,10 @@
         <v>145</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H156" s="1">
-        <v>2016.3</v>
+        <v>2016.2</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>146</v>
@@ -6507,13 +6564,13 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>209</v>
@@ -6525,7 +6582,7 @@
         <v>145</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H157" s="1">
         <v>2016.3</v>
@@ -6539,13 +6596,13 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>209</v>
@@ -6557,10 +6614,10 @@
         <v>145</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H158" s="1">
-        <v>2016.2</v>
+        <v>2016.3</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>146</v>
@@ -6571,13 +6628,13 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>209</v>
@@ -6589,7 +6646,7 @@
         <v>145</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H159" s="1">
         <v>2016.11</v>
@@ -6603,13 +6660,13 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>209</v>
@@ -6621,10 +6678,10 @@
         <v>145</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H160" s="1">
-        <v>2018.1</v>
+        <v>2016.11</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>146</v>
@@ -6635,13 +6692,13 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>209</v>
@@ -6653,15 +6710,239 @@
         <v>145</v>
       </c>
       <c r="G161" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H161" s="1">
+        <v>2016.3</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>85</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H162" s="1">
+        <v>2016.3</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>86</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H163" s="1">
+        <v>2016.3</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>86</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="1">
+        <v>2016.3</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>87</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H165" s="1">
+        <v>2016.2</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>88</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H166" s="1">
+        <v>2016.11</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>89</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H167" s="1">
+        <v>2018.1</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>89</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H161" s="1">
+      <c r="H168" s="1">
         <v>2018.1</v>
       </c>
-      <c r="I161" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J161" s="1" t="s">
+      <c r="I168" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6673,14 +6954,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A14" sqref="A14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6875,259 +7159,264 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>2017</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>2017</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>2017</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>2017</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>2017</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="D12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>2017</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>2017</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="D14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>2017</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>148</v>
+      <c r="I14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7137,10 +7426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7503,4 +7792,1786 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345A437-0119-46E2-A97D-8B22F2CD9940}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2017.01</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2017.01</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2017.01</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2017.01</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2015.09</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>28</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/6 新版工具/6.0/大号/新产品.xlsx
+++ b/6 新版工具/6.0/大号/新产品.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A4AA61C5-4507-4774-B72D-422AFA66E913}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C7B1B4F9-0DC6-474D-A6CE-C7958B7B2007}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理已通过未写" sheetId="9" r:id="rId1"/>
     <sheet name="剪切无datasheet" sheetId="10" r:id="rId2"/>
     <sheet name="测试" sheetId="11" r:id="rId3"/>
     <sheet name="第一批次提交" sheetId="12" r:id="rId4"/>
+    <sheet name="第二次提交" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整理已通过未写!$A$1:$J$168</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="347">
   <si>
     <t>文章来源</t>
   </si>
@@ -1557,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection sqref="A1:J55"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7798,8 +7799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F345A437-0119-46E2-A97D-8B22F2CD9940}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9574,4 +9575,373 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99625E9-8F9C-4365-A57D-EDD6B9FBC40D}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2017.09</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2017.09</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2017.09</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2017.09</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/6 新版工具/6.0/大号/新产品.xlsx
+++ b/6 新版工具/6.0/大号/新产品.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C7B1B4F9-0DC6-474D-A6CE-C7958B7B2007}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F65701B-F4DD-42B1-BD2B-036C44C7DA89}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理已通过未写" sheetId="9" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="测试" sheetId="11" r:id="rId3"/>
     <sheet name="第一批次提交" sheetId="12" r:id="rId4"/>
     <sheet name="第二次提交" sheetId="13" r:id="rId5"/>
+    <sheet name="第三次查漏补缺" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">整理已通过未写!$A$1:$J$168</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="387">
   <si>
     <t>文章来源</t>
   </si>
@@ -1074,13 +1075,133 @@
   <si>
     <t>标红的为世强官网已有文章，同时注意第16个重复一个，记得排除</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32F12SN</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P32F12SN.pdf</t>
+  </si>
+  <si>
+    <t>P40F12SN</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P40F12SN.pdf</t>
+  </si>
+  <si>
+    <t>P85W28HP2F</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P85W28HP2F.pdf</t>
+  </si>
+  <si>
+    <t>P15F60HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P15F60HP2.pdf</t>
+  </si>
+  <si>
+    <t>P8B30HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P8B30HP2.pdf</t>
+  </si>
+  <si>
+    <t>P2B60HP2F</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P2B60HP2F.pdf</t>
+  </si>
+  <si>
+    <t>P60B6SN</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P60B6SN.pdf</t>
+  </si>
+  <si>
+    <t>P66F7R5SN</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P66F7R5SN.pdf</t>
+  </si>
+  <si>
+    <t>P6FE25VX5K</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P6FE25VX5K.pdf</t>
+  </si>
+  <si>
+    <t>P5F50HP2F</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P5F50HP2F.pdf</t>
+  </si>
+  <si>
+    <t>P26B10SN</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P26B10SN.pdf</t>
+  </si>
+  <si>
+    <t>P30B10EL</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P30B10EL.pdf</t>
+  </si>
+  <si>
+    <t>P3B28HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P3B28HP2.pdf</t>
+  </si>
+  <si>
+    <t>P6B28HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P6B28HP2.pdf</t>
+  </si>
+  <si>
+    <t>P8B28HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P8B28HP2.pdf</t>
+  </si>
+  <si>
+    <t>P1R5B40HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P1R5B40HP2.pdf</t>
+  </si>
+  <si>
+    <t>P4B40HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P4B40HP2.pdf</t>
+  </si>
+  <si>
+    <t>P6B40HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P6B40HP2.pdf</t>
+  </si>
+  <si>
+    <t>P6B52HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P6B52HP2.pdf</t>
+  </si>
+  <si>
+    <t>P36F28HP2</t>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product/semi/datasheet/MOS_P36F28HP2.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1229,21 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1192,7 +1328,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,6 +1351,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9581,7 +9729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99625E9-8F9C-4365-A57D-EDD6B9FBC40D}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -9944,4 +10092,692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748FD501-EEAB-4B91-9957-8257107D505A}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2017.07</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2016.02</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2015.09</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2015.09</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2015.12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2015.09</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2016.04</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2014.07</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2014.03</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2014.09</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2014.09</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2014.03</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2014.03</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2014.03</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2014.03</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2014.07</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>